--- a/2024-java-prep/Sek-Interview-Prep/Java-Interview.xlsx
+++ b/2024-java-prep/Sek-Interview-Prep/Java-Interview.xlsx
@@ -11,93 +11,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
-  <si>
-    <t>1.why synchonization and explain with examples</t>
-  </si>
-  <si>
-    <t>2.Explain about System.out.println() function</t>
-  </si>
-  <si>
-    <t>3.Is it possible to import same class or package twice in java then what will happen during runtime</t>
-  </si>
-  <si>
-    <t>4.Double brace instantion in java</t>
-  </si>
-  <si>
-    <t>5.find the first non-repeated character in the string.==&gt; Java article are good for read.</t>
-  </si>
-  <si>
-    <t>6.flow of HTTPS request though Springboot Appliction</t>
-  </si>
-  <si>
-    <t>7.how to enable the debugging logs in spring boot application.</t>
-  </si>
-  <si>
-    <t>8.purpose of logging in SB</t>
-  </si>
-  <si>
-    <t>9.how will you proceed to close the Story  of JIRA, wheter it is Bug or Story point.</t>
-  </si>
-  <si>
-    <t>10.how will ensure your secure your application.</t>
-  </si>
-  <si>
-    <t>11.when we use to lambda expression</t>
-  </si>
-  <si>
-    <t>12.java is pass by value or pass by reference and difference between these two.</t>
-  </si>
-  <si>
-    <t>13.to the method i have passed an object, what does java do internally whether internally copied(cloned) or directly pass the object .</t>
-  </si>
-  <si>
-    <t>14.how we configure two transactons using @Transactioanl annotations.which isolation level we used inside the tansaction.</t>
-  </si>
-  <si>
-    <t>15.if we have to delete in parent table that data also delete in child data how will we configure in entity class.</t>
-  </si>
-  <si>
-    <t>16.how will generate the JWT token.</t>
-  </si>
-  <si>
-    <t>17. i passed JWT token Service layer at srviice layer i want to get the data from that token and pass to API call, how can i do that.</t>
-  </si>
-  <si>
-    <t>18. use of optional and optional.off()</t>
-  </si>
-  <si>
-    <t>19. write a program for customized functional interface and call the interface.</t>
-  </si>
-  <si>
-    <t>20. write a program for lambda expression with Functional interface.</t>
-  </si>
-  <si>
-    <t>21. Write REST URI</t>
-  </si>
-  <si>
-    <t>22. purpose of endpoint and flow of endpoints</t>
-  </si>
-  <si>
-    <t>23. Whats the framework to define endpoints</t>
-  </si>
-  <si>
-    <t>24. what are status codes for GetMapping</t>
-  </si>
-  <si>
-    <t>25. Example for @RequestParam</t>
-  </si>
-  <si>
-    <t>26. flow of rest request</t>
-  </si>
-  <si>
-    <t>27. write the query for how many male employees is there using SQL queries</t>
-  </si>
-  <si>
-    <t>28. how many payments are made in Feb 2024 using SQL Queries.</t>
-  </si>
-  <si>
-    <t>29. Find the sum of numeric values in given input</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="525">
+  <si>
+    <t>Why synchonization and explain with examples</t>
+  </si>
+  <si>
+    <t>Explain about System.out.println() function</t>
+  </si>
+  <si>
+    <t>Is it possible to import same class or package twice in java then what will happen during runtime</t>
+  </si>
+  <si>
+    <t>Double brace instantion in java</t>
+  </si>
+  <si>
+    <t>Find the first non-repeated character in the string.==&gt; Java article are good for read.</t>
+  </si>
+  <si>
+    <t>Flow of HTTPS request though Springboot Appliction</t>
+  </si>
+  <si>
+    <t>How to enable the debugging logs in spring boot application.</t>
+  </si>
+  <si>
+    <t>Purpose of logging in SB</t>
+  </si>
+  <si>
+    <t>How will you proceed to close the Story  of JIRA, wheter it is Bug or Story point.</t>
+  </si>
+  <si>
+    <t>How will ensure your secure your application.</t>
+  </si>
+  <si>
+    <t>When we use to lambda expression</t>
+  </si>
+  <si>
+    <t>Java is pass by value or pass by reference and difference between these two.</t>
+  </si>
+  <si>
+    <t>To the method i have passed an object, what does java do internally whether internally copied(cloned) or directly pass the object .</t>
+  </si>
+  <si>
+    <t>How we configure two transactons using @Transactioanl annotations.which isolation level we used inside the tansaction.</t>
+  </si>
+  <si>
+    <t>If we have to delete in parent table that data also delete in child data how will we configure in entity class.</t>
+  </si>
+  <si>
+    <t>How will generate the JWT token.</t>
+  </si>
+  <si>
+    <t>I passed JWT token Service layer at srviice layer i want to get the data from that token and pass to API call, how can i do that.</t>
+  </si>
+  <si>
+    <t>Use of optional and optional.off()</t>
+  </si>
+  <si>
+    <t>Write a program for customized functional interface and call the interface.</t>
+  </si>
+  <si>
+    <t>Write a program for lambda expression with Functional interface.</t>
+  </si>
+  <si>
+    <t>Write REST URI</t>
+  </si>
+  <si>
+    <t>Purpose of endpoint and flow of endpoints</t>
+  </si>
+  <si>
+    <t>Whats the framework to define endpoints</t>
+  </si>
+  <si>
+    <t>What are status codes for GetMapping</t>
+  </si>
+  <si>
+    <t>Example for @RequestParam</t>
+  </si>
+  <si>
+    <t>Flow of rest request</t>
+  </si>
+  <si>
+    <t>Write the query for how many male employees is there using SQL queries</t>
+  </si>
+  <si>
+    <t>How many payments are made in Feb 2024 using SQL Queries.</t>
+  </si>
+  <si>
+    <t>Find the sum of numeric values in given input</t>
   </si>
   <si>
     <t>input : 12a3bc4   output : 10</t>
@@ -109,535 +109,1483 @@
     <t>30. Request came from one service to another service another service , how the logs connect to multiple.</t>
   </si>
   <si>
-    <t>31. How can we write test cases for any void type method.</t>
-  </si>
-  <si>
-    <t>32. how can we write the test case for update employee and flow of test case.</t>
-  </si>
-  <si>
-    <t>33. where exactly used streams in your project.</t>
-  </si>
-  <si>
-    <t>34. Consumer &amp; Supplier functioan Interfaces where used in ur project</t>
-  </si>
-  <si>
-    <t>35. Explain Streams.map()</t>
-  </si>
-  <si>
-    <t>36. Difference between Map and Flatmap</t>
-  </si>
-  <si>
-    <t>37. where used FlatMap in ur project or any scenarions u have idea.</t>
-  </si>
-  <si>
-    <t>38. Find first non-repeated character in string using java8</t>
-  </si>
-  <si>
-    <t>39. Difference between Hashtable and ConcurrentHashMap.</t>
-  </si>
-  <si>
-    <t>40. what is the concept of Default Method.</t>
-  </si>
-  <si>
-    <t>41. can we have Default methods in Normal Interfaces.</t>
-  </si>
-  <si>
-    <t>42. Java implemented Default Method in any existing Intefaces</t>
-  </si>
-  <si>
-    <t>43. difference between Hashmap and LinkedHashmap.</t>
-  </si>
-  <si>
-    <t>44. What is Shallow and Deep Copy , how can we achieve these.</t>
-  </si>
-  <si>
-    <t>45. How Does Garbage collector woks internally.</t>
-  </si>
-  <si>
-    <t>46. Irrespective of Garbage collector , is there any way memory management.</t>
-  </si>
-  <si>
-    <t>47. is Restful Statefull or Stateless, how can we acheive the State of Restful Webservices.</t>
-  </si>
-  <si>
-    <t>48. 403 and 401 Error</t>
-  </si>
-  <si>
-    <t>49. Can we have Request body to Delete Method.</t>
-  </si>
-  <si>
-    <t>50. I want to Delete 10000 records in DB, how can we achieve in Restful Delete operation.</t>
-  </si>
-  <si>
-    <t>51. How many ways to load properties in SpringBoot.</t>
-  </si>
-  <si>
-    <t>52. @Configproperties from where it eads properties.</t>
-  </si>
-  <si>
-    <t>53. How can we maintain Fault Toleance.</t>
-  </si>
-  <si>
-    <t>54. Difference between Feign Client and Rest Template.</t>
-  </si>
-  <si>
-    <t>55. How can we creaate TaceID and SpanId.</t>
-  </si>
-  <si>
-    <t>56. Difference between Trace Id and Span id.</t>
-  </si>
-  <si>
-    <t>57. How do we Join 2 tables.</t>
-  </si>
-  <si>
-    <t>58. JUNIT integration testing.</t>
-  </si>
-  <si>
-    <t>59. How Do we need Custom Headers.</t>
-  </si>
-  <si>
-    <t>60. How do we add additional Headers.</t>
-  </si>
-  <si>
-    <t>61. How do we send the additional headers in Response.</t>
-  </si>
-  <si>
-    <t>62. Can we have static constructor in java</t>
-  </si>
-  <si>
-    <t>63. There are any Conflicts in JAR , how to resolve this issue JAR conflicts.</t>
-  </si>
-  <si>
-    <t>64. when we have NoDefclassNotFoundError and ClassNotfoundException how would you handle that, how will you resolve it.</t>
-  </si>
-  <si>
-    <t>65. New Features in java 11 and Java 17.</t>
-  </si>
-  <si>
-    <t>66. How do we handle connection pooling for Database.</t>
-  </si>
-  <si>
-    <t>67. How do we maintain no of connections,  how many connections open at any point of time , any llibrary to achieve</t>
-  </si>
-  <si>
-    <t>68. How Does Autoconfiguration Works in Spring Boot.</t>
-  </si>
-  <si>
-    <t>69. How do we read any value fom application.poperties</t>
-  </si>
-  <si>
-    <t>70. How do we manage external properties.</t>
-  </si>
-  <si>
-    <t>71. What is Spring Intializer</t>
-  </si>
-  <si>
-    <t>72. How do we Execute Parallel transactions in java application.</t>
-  </si>
-  <si>
-    <t>73. Have you used computable feature.</t>
-  </si>
-  <si>
-    <t>74. If we have multiple Queries how do we run parallelly.</t>
-  </si>
-  <si>
-    <t>75. Signature of Webservices in highlevel</t>
-  </si>
-  <si>
-    <t>76. How do we use HttpRequest.</t>
-  </si>
-  <si>
-    <t>77. Have we used httprequest</t>
-  </si>
-  <si>
-    <t>78. How will we add additional comments in http request &amp; http response.</t>
-  </si>
-  <si>
-    <t>79. How will we read additional information in http request and http response.</t>
-  </si>
-  <si>
-    <t>80. Diffeence of Httpservlet Request and QueryParameter.</t>
-  </si>
-  <si>
-    <t>81. SSL Configuration.</t>
-  </si>
-  <si>
-    <t>82. Interceptors and Filters are implemented in ur project.</t>
-  </si>
-  <si>
-    <t>83. What type of Authentication mechanism used in ur project.</t>
-  </si>
-  <si>
-    <t>84. What is AOP.</t>
-  </si>
-  <si>
-    <t>85. How do we Config logging for our application.</t>
-  </si>
-  <si>
-    <t>86. If one issue came with  one service (Fixed Deposit creation) is failed, how would you communicate one equest to another request.</t>
-  </si>
-  <si>
-    <t>87. what are core java Design Patterns.</t>
-  </si>
-  <si>
-    <t>88. How can we break the Singleton Design Patterns, what types of precautions canwe take while breaking the</t>
-  </si>
-  <si>
-    <t>89. Precautions can we take while breaking Singleton Design pattersn</t>
-  </si>
-  <si>
-    <t>90. what type of collections you have used in your project.</t>
-  </si>
-  <si>
-    <t>91. can we achieve Synchronization with hashmap , how can we do ?</t>
-  </si>
-  <si>
-    <t>92. Example of Fail-Fast and Fail-Safe.</t>
-  </si>
-  <si>
-    <t>93. Functional programming in java</t>
-  </si>
-  <si>
-    <t>94. Can we create Stand alone applications using Springboot , explain the steps to create the standalone applications.</t>
-  </si>
-  <si>
-    <t>95. Spring Beans are Thread safe ? can we use Sping Beans in multi thread Environments.</t>
-  </si>
-  <si>
-    <t>96. Explain about JUNIT</t>
-  </si>
-  <si>
-    <t>97. Any ways to optimize the SQL Query to improve the DB performance.</t>
-  </si>
-  <si>
-    <t>98. To improve the DB Performance what kind of criteria (or) debugging used in Database perspective.</t>
-  </si>
-  <si>
-    <t>99. Why Perm-Gen and Difference Between perm gen and MetaSpace.</t>
-  </si>
-  <si>
-    <t>100. Difference between Partition and Grouping in mySQL , where we can use.</t>
-  </si>
-  <si>
-    <t>101. If Gateway Goesdown entire application</t>
-  </si>
-  <si>
-    <t>102. will string allow  multiple threads</t>
-  </si>
-  <si>
-    <t>103. what is try with resources in java</t>
-  </si>
-  <si>
-    <t>104. How to represent Foreign Key from entity class.</t>
-  </si>
-  <si>
-    <t>105. Finding Duplicates using GROUP BY and Having Claueses, filteroout the Duplicate emailids from userslist.</t>
-  </si>
-  <si>
-    <t>106. Difference between Runnable and Callable</t>
-  </si>
-  <si>
-    <t>107. Explain about Executor service</t>
-  </si>
-  <si>
-    <t>108. explain about Future Interface and Future Object.</t>
-  </si>
-  <si>
-    <t>109. What is Default Connection Pooling mechanism available in Spring boot.</t>
-  </si>
-  <si>
-    <t>110. In Interface can we write private methods also.</t>
-  </si>
-  <si>
-    <t>111. What is Hashing</t>
-  </si>
-  <si>
-    <t>112. Hashing Collision.</t>
-  </si>
-  <si>
-    <t>113. SOLID Principles in java.</t>
-  </si>
-  <si>
-    <t>114. What is Thread pool</t>
-  </si>
-  <si>
-    <t>115. What is Idempotent.</t>
-  </si>
-  <si>
-    <t>116. How can we represent Composite Key in Entity class.</t>
-  </si>
-  <si>
-    <t>117. Difference between Primary Key and Unique Key ?</t>
-  </si>
-  <si>
-    <t>118. Fail-Fast and Fail-Safe Iteators</t>
-  </si>
-  <si>
-    <t>119. I want to remove Duplicate and Sot the Data which collection can i use (I have too Much of Data)</t>
-  </si>
-  <si>
-    <t>120. Difference between Hashmap and ConcurrentHashMap .</t>
-  </si>
-  <si>
-    <t>121. How do we Implements Schedulers in Spring Boot.</t>
-  </si>
-  <si>
-    <t>122. How can we handle Exceptions in Microservices.</t>
-  </si>
-  <si>
-    <t>123. Difference between Sorted Set and Tree Set.</t>
-  </si>
-  <si>
-    <t>124. Difference between Tomcat and Jetty servers.</t>
-  </si>
-  <si>
-    <t>125. When we have to use Tomcat ,Jetty , Netty and undertow Servers in Spring Boot.</t>
-  </si>
-  <si>
-    <t>126. Difference between Hashtable and ConcurentHashmap.</t>
-  </si>
-  <si>
-    <t>127. Volatile and Transient Variables</t>
-  </si>
-  <si>
-    <t>128. How can we pass values to private constructor.</t>
-  </si>
-  <si>
-    <t>129. Write the Custome Exception Program in core java.</t>
-  </si>
-  <si>
-    <t>130. Explain about ORM</t>
-  </si>
-  <si>
-    <t>131. What is Lazyloading and Early loading in Entity ClassNotfoundException</t>
-  </si>
-  <si>
-    <t>132. What is SerialversionUID.</t>
-  </si>
-  <si>
-    <t>133. What is Explain in SQL Query.</t>
-  </si>
-  <si>
-    <t>134. Difference between For and Foreach.</t>
-  </si>
-  <si>
-    <t>135. How many ways we can Intialize the Singleton.</t>
-  </si>
-  <si>
-    <t>136. Which Algorithm JVM do Garbage Collection.</t>
-  </si>
-  <si>
-    <t>137. In table we have 10 coloumns , in this 10 coloumns how we Decide which coloumn is the index.</t>
-  </si>
-  <si>
-    <t>138. Can we forcely Start the Garbage collector.</t>
-  </si>
-  <si>
-    <t>139. what are the operations available in Stream.</t>
-  </si>
-  <si>
-    <t>140. explain about Optional class.</t>
-  </si>
-  <si>
-    <t>141. Difference Between HashMap and Hashtable.</t>
-  </si>
-  <si>
-    <t>142. explain about Peek() method in java8 Strems.</t>
-  </si>
-  <si>
-    <t>143. Optional.of() and Optional.nullable() which one is peferable and why.</t>
-  </si>
-  <si>
-    <t>144. Explin Interceptors in Spring Boot.</t>
-  </si>
-  <si>
-    <t>145. what is cascade and explain about cascade.</t>
-  </si>
-  <si>
-    <t>146. Types of relationships in data JPA.</t>
-  </si>
-  <si>
-    <t>147. Explain About @Transaction.</t>
-  </si>
-  <si>
-    <t>148. what are the Transaction propagation levels.</t>
-  </si>
-  <si>
-    <t>149. what are the Transaction Isolation</t>
-  </si>
-  <si>
-    <t>150. Difference between New operator and NewInstance() method .</t>
-  </si>
-  <si>
-    <t>151. What is factory Method.</t>
-  </si>
-  <si>
-    <t>152. Memory management in Java</t>
-  </si>
-  <si>
-    <t>153. How many ways can we create Objects.</t>
-  </si>
-  <si>
-    <t>154. Select query , retrieve the last 5 records using SQL.</t>
-  </si>
-  <si>
-    <t>155. What are the annotations used for secuity in SpringBoot.</t>
-  </si>
-  <si>
-    <t>156. while Configuring the rest API on service registry rest API name and end point is same or different.</t>
-  </si>
-  <si>
-    <t>157. How do we maintain the Different versions of Rest API.</t>
-  </si>
-  <si>
-    <t>158. Difference between Queryparam and Pathparam.</t>
-  </si>
-  <si>
-    <t>159. can pathparam accept multiple params.</t>
-  </si>
-  <si>
-    <t>160. How do we send multiple paams  via the request using Params and Queryparams.</t>
-  </si>
-  <si>
-    <t>161. Which part of JWT token to use for authenticate.</t>
-  </si>
-  <si>
-    <t>162. other types of authentication we have in spring boot</t>
-  </si>
-  <si>
-    <t>163. where do we store the JWT Token.</t>
-  </si>
-  <si>
-    <t>164. where this JWT token generate.</t>
-  </si>
-  <si>
-    <t>165. r u generated JWT token by youself or any third paty API we are used.</t>
-  </si>
-  <si>
-    <t>166. Explain about Spring Boot Security concepts.</t>
-  </si>
-  <si>
-    <t>167. Can we congigure custom messages to Actuators is it possible.</t>
-  </si>
-  <si>
-    <t>168. Can we configure different status for  Different exceptions.</t>
-  </si>
-  <si>
-    <t>169. How do we give Different Response status to Different exceptions.</t>
-  </si>
-  <si>
-    <t>170. Lazy and Eager Fetch( One to Many Relationships).</t>
-  </si>
-  <si>
-    <t>171. Multithreading - execution framework</t>
-  </si>
-  <si>
-    <t>172. What is Design Pattern and difference b/w factory design patter and builder design pattern.</t>
-  </si>
-  <si>
-    <t>173. Write a program to change the existing string to new string reading from Excel.</t>
-  </si>
-  <si>
-    <t>174. Java + Spring Boot : annotations, connections, session management, transaction, exception handling, mappings</t>
-  </si>
-  <si>
-    <t>175. Asynchronous programming Examples.</t>
-  </si>
-  <si>
-    <t>176. Java Sorting Programming using java8.</t>
-  </si>
-  <si>
-    <t>177. Different modules from spring boot.</t>
-  </si>
-  <si>
-    <t>178. Create an immutable class Employee(id, name, list of interests) and create 3 employee objects and explain immutability.</t>
-  </si>
-  <si>
-    <t>179. What are the ceremonies that we have in Agile?</t>
-  </si>
-  <si>
-    <t>180. What is the process of review for your code in the agile model? Who does the review?</t>
-  </si>
-  <si>
-    <t>181. In Agile what do you mean by retrospective ceremony? What do we do there?</t>
-  </si>
-  <si>
-    <t>182. Create a array list to print numbers</t>
-  </si>
-  <si>
-    <t>183. Print the max number of array list. What is the use of if present in this code.</t>
-  </si>
-  <si>
-    <t>184. What are the usage of generics in java?</t>
-  </si>
-  <si>
-    <t>185. How do we create a immutable objects in java and How do achieve immutable object in java?</t>
-  </si>
-  <si>
-    <t>186. explain about garbage collection in Java and what are the events that are triggered.</t>
-  </si>
-  <si>
-    <t>187. Do have exp in Microservices? Do you use Restful? How do you present to client if you are using Jason request?</t>
-  </si>
-  <si>
-    <t>188. How do you implement the JWT token?</t>
-  </si>
-  <si>
-    <t>189. What are the challenges we face in Microservices as  a distributed architecture?</t>
-  </si>
-  <si>
-    <t>190. Map &amp; flat Map &amp; Difference</t>
-  </si>
-  <si>
-    <t>191. What is RequestMapping in spring boot?</t>
-  </si>
-  <si>
-    <t>192. What are checked exceptions and unchecked exceptions in java?</t>
-  </si>
-  <si>
-    <t>193. Even no in list of integer, finding the number stating with 1 in the same array, finding all the duplicate</t>
-  </si>
-  <si>
-    <t>194. What is the Path in spring?</t>
-  </si>
-  <si>
-    <t>195. What is Junit and how to implement it?</t>
-  </si>
-  <si>
-    <t>196. How to ignore the test case in Junit ?</t>
-  </si>
-  <si>
-    <t>197. What is the Mock and Mock Inject?</t>
-  </si>
-  <si>
-    <t>198. What is the git clone ?</t>
-  </si>
-  <si>
-    <t>199. What is the origin and pull requests in git?</t>
-  </si>
-  <si>
-    <t>200. How to revert the tag in git?</t>
-  </si>
-  <si>
-    <t>201. What is the head in git?</t>
-  </si>
-  <si>
-    <t>202. Defualt method &amp; why this is used</t>
-  </si>
-  <si>
-    <t>203. Write a method that will take list of employees and given pin code as input and will return the list of employees based on given pin code.</t>
-  </si>
-  <si>
-    <t>204. How to use configuration on cloud side</t>
-  </si>
-  <si>
-    <t>205. How Database transaction works.</t>
-  </si>
-  <si>
-    <t>206. Implement a custom java class like Stack in java for only push operation. Write JUnit for it, Class should be generic.</t>
-  </si>
-  <si>
-    <t>207. Jpa query related - how to do associations,</t>
+    <t>How can we write test cases for any void type method.</t>
+  </si>
+  <si>
+    <t>How can we write the test case for update employee and flow of test case.</t>
+  </si>
+  <si>
+    <t>Where exactly used streams in your project.</t>
+  </si>
+  <si>
+    <t>Consumer &amp; Supplier functioan Interfaces where used in ur project</t>
+  </si>
+  <si>
+    <t>Explain Streams.map()</t>
+  </si>
+  <si>
+    <t>Difference between Map and Flatmap</t>
+  </si>
+  <si>
+    <t>Where used FlatMap in ur project or any scenarions u have idea.</t>
+  </si>
+  <si>
+    <t>Find first non-repeated character in string using java8</t>
+  </si>
+  <si>
+    <t>Difference between Hashtable and ConcurrentHashMap.</t>
+  </si>
+  <si>
+    <t>What is the concept of Default Method.</t>
+  </si>
+  <si>
+    <t>Can we have Default methods in Normal Interfaces.</t>
+  </si>
+  <si>
+    <t>Java implemented Default Method in any existing Intefaces</t>
+  </si>
+  <si>
+    <t>Difference between Hashmap and LinkedHashmap.</t>
+  </si>
+  <si>
+    <t>What is Shallow and Deep Copy , how can we achieve these.</t>
+  </si>
+  <si>
+    <t>How Does Garbage collector woks internally.</t>
+  </si>
+  <si>
+    <t>Irrespective of Garbage collector , is there any way memory management.</t>
+  </si>
+  <si>
+    <t>Is Restful Statefull or Stateless, how can we acheive the State of Restful Webservices.</t>
+  </si>
+  <si>
+    <t>403 and 401 Error</t>
+  </si>
+  <si>
+    <t>Can we have Request body to Delete Method.</t>
+  </si>
+  <si>
+    <t>I want to Delete 10000 records in DB, how can we achieve in Restful Delete operation.</t>
+  </si>
+  <si>
+    <t>How many ways to load properties in SpringBoot.</t>
+  </si>
+  <si>
+    <t>@Configproperties from where it reads properties.</t>
+  </si>
+  <si>
+    <t>How can we maintain Fault Toleance.</t>
+  </si>
+  <si>
+    <t>Difference between Feign Client and Rest Template.</t>
+  </si>
+  <si>
+    <t>How can we creaate TaceID and SpanId.</t>
+  </si>
+  <si>
+    <t>Difference between Trace Id and Span id.</t>
+  </si>
+  <si>
+    <t>How do we Join 2 tables.</t>
+  </si>
+  <si>
+    <t>JUNIT integration testing.</t>
+  </si>
+  <si>
+    <t>How Do we need Custom Headers.</t>
+  </si>
+  <si>
+    <t>How do we add additional Headers.</t>
+  </si>
+  <si>
+    <t>How do we send the additional headers in Response.</t>
+  </si>
+  <si>
+    <t>Can we have static constructor in java</t>
+  </si>
+  <si>
+    <t>There are any Conflicts in JAR , how to resolve this issue JAR conflicts.</t>
+  </si>
+  <si>
+    <t>When we have NoDefclassNotFoundError and ClassNotfoundException how would you handle that, how will you resolve it.</t>
+  </si>
+  <si>
+    <t>New Features in java 11 and Java 17.</t>
+  </si>
+  <si>
+    <t>How do we handle connection pooling for Database.</t>
+  </si>
+  <si>
+    <t>How do we maintain no of connections,  how many connections open at any point of time , any llibrary to achieve</t>
+  </si>
+  <si>
+    <t>How Does Autoconfiguration Works in Spring Boot.</t>
+  </si>
+  <si>
+    <t>How do we read any value fom application.poperties</t>
+  </si>
+  <si>
+    <t>How do we manage external properties.</t>
+  </si>
+  <si>
+    <t>What is Spring Intializer</t>
+  </si>
+  <si>
+    <t>How do we Execute Parallel transactions in java application.</t>
+  </si>
+  <si>
+    <t>Have you used computable feature.</t>
+  </si>
+  <si>
+    <t>If we have multiple Queries how do we run parallelly.</t>
+  </si>
+  <si>
+    <t>Signature of Webservices in highlevel</t>
+  </si>
+  <si>
+    <t>How do we use HttpRequest.</t>
+  </si>
+  <si>
+    <t>Have we used httprequest</t>
+  </si>
+  <si>
+    <t>How will we add additional comments in http request &amp; http response.</t>
+  </si>
+  <si>
+    <t>How will we read additional information in http request and http response.</t>
+  </si>
+  <si>
+    <t>Diffeence of Httpservlet Request and QueryParameter.</t>
+  </si>
+  <si>
+    <t>SSL Configuration.</t>
+  </si>
+  <si>
+    <t>Interceptors and Filters are implemented in ur project.</t>
+  </si>
+  <si>
+    <t>What type of Authentication mechanism used in ur project.</t>
+  </si>
+  <si>
+    <t>What is AOP.</t>
+  </si>
+  <si>
+    <t>How do we Config logging for our application.</t>
+  </si>
+  <si>
+    <t>If one issue came with  one service (Fixed Deposit creation) is failed, how would you communicate one equest to another request.</t>
+  </si>
+  <si>
+    <t>What are core java Design Patterns.</t>
+  </si>
+  <si>
+    <t>How can we break the Singleton Design Patterns, what types of precautions canwe take while breaking the</t>
+  </si>
+  <si>
+    <t>Precautions can we take while breaking Singleton Design pattersn</t>
+  </si>
+  <si>
+    <t>What type of collections you have used in your project.</t>
+  </si>
+  <si>
+    <t>Can we achieve Synchronization with hashmap , how can we do ?</t>
+  </si>
+  <si>
+    <t>Example of Fail-Fast and Fail-Safe.</t>
+  </si>
+  <si>
+    <t>Functional programming in java</t>
+  </si>
+  <si>
+    <t>Can we create Stand alone applications using Springboot , explain the steps to create the standalone applications.</t>
+  </si>
+  <si>
+    <t>Spring Beans are Thread safe ? can we use Sping Beans in multi thread Environments.</t>
+  </si>
+  <si>
+    <t>Explain about JUNIT</t>
+  </si>
+  <si>
+    <t>Any ways to optimize the SQL Query to improve the DB performance.</t>
+  </si>
+  <si>
+    <t>To improve the DB Performance what kind of criteria (or) debugging used in Database perspective.</t>
+  </si>
+  <si>
+    <t>Why Perm-Gen and Difference Between perm gen and MetaSpace.</t>
+  </si>
+  <si>
+    <t>Difference between Partition and Grouping in mySQL , where we can use.</t>
+  </si>
+  <si>
+    <t>If Gateway Goesdown entire application</t>
+  </si>
+  <si>
+    <t>Will string allow  multiple threads</t>
+  </si>
+  <si>
+    <t>What is try with resources in java</t>
+  </si>
+  <si>
+    <t>How to represent Foreign Key from entity class.</t>
+  </si>
+  <si>
+    <t>Finding Duplicates using GROUP BY and Having Claueses, filteroout the Duplicate emailids from userslist.</t>
+  </si>
+  <si>
+    <t>Difference between Runnable and Callable</t>
+  </si>
+  <si>
+    <t>Explain about Executor service</t>
+  </si>
+  <si>
+    <t>Explain about Future Interface and Future Object.</t>
+  </si>
+  <si>
+    <t>What is Default Connection Pooling mechanism available in Spring boot.</t>
+  </si>
+  <si>
+    <t>In Interface can we write private methods also.</t>
+  </si>
+  <si>
+    <t>What is Hashing</t>
+  </si>
+  <si>
+    <t>Hashing Collision.</t>
+  </si>
+  <si>
+    <t>SOLID Principles in java.</t>
+  </si>
+  <si>
+    <t>What is Thread pool</t>
+  </si>
+  <si>
+    <t>What is Idempotent.</t>
+  </si>
+  <si>
+    <t>How can we represent Composite Key in Entity class.</t>
+  </si>
+  <si>
+    <t>Difference between Primary Key and Unique Key ?</t>
+  </si>
+  <si>
+    <t>Fail-Fast and Fail-Safe Iteators</t>
+  </si>
+  <si>
+    <t>I want to remove Duplicate and Sot the Data which collection can i use (I have too Much of Data)</t>
+  </si>
+  <si>
+    <t>Difference between Hashmap and ConcurrentHashMap .</t>
+  </si>
+  <si>
+    <t>How do we Implements Schedulers in Spring Boot.</t>
+  </si>
+  <si>
+    <t>How can we handle Exceptions in Microservices.</t>
+  </si>
+  <si>
+    <t>Difference between Sorted Set and Tree Set.</t>
+  </si>
+  <si>
+    <t>Difference between Tomcat and Jetty servers.</t>
+  </si>
+  <si>
+    <t>When we have to use Tomcat ,Jetty , Netty and undertow Servers in Spring Boot.</t>
+  </si>
+  <si>
+    <t>Difference between Hashtable and ConcurentHashmap.</t>
+  </si>
+  <si>
+    <t>Volatile and Transient Variables</t>
+  </si>
+  <si>
+    <t>How can we pass values to private constructor.</t>
+  </si>
+  <si>
+    <t>Write the Custome Exception Program in core java.</t>
+  </si>
+  <si>
+    <t>Explain about ORM</t>
+  </si>
+  <si>
+    <t>What is Lazyloading and Early loading in Entity ClassNotfoundException</t>
+  </si>
+  <si>
+    <t>What is SerialversionUID.</t>
+  </si>
+  <si>
+    <t>What is Explain in SQL Query.</t>
+  </si>
+  <si>
+    <t>Difference between For and Foreach.</t>
+  </si>
+  <si>
+    <t>How many ways we can Intialize the Singleton.</t>
+  </si>
+  <si>
+    <t>Which Algorithm JVM do Garbage Collection.</t>
+  </si>
+  <si>
+    <t>In table we have 10 coloumns , in this 10 coloumns how we Decide which coloumn is the index.</t>
+  </si>
+  <si>
+    <t>Can we forcely Start the Garbage collector.</t>
+  </si>
+  <si>
+    <t>What are the operations available in Stream.</t>
+  </si>
+  <si>
+    <t>Explain about Optional class.</t>
+  </si>
+  <si>
+    <t>Difference Between HashMap and Hashtable.</t>
+  </si>
+  <si>
+    <t>Explain about Peek() method in java8 Strems.</t>
+  </si>
+  <si>
+    <t>Optional.of() and Optional.nullable() which one is peferable and why.</t>
+  </si>
+  <si>
+    <t>Explin Interceptors in Spring Boot.</t>
+  </si>
+  <si>
+    <t>What is cascade and explain about cascade.</t>
+  </si>
+  <si>
+    <t>Types of relationships in data JPA.</t>
+  </si>
+  <si>
+    <t>Explain About @Transaction.</t>
+  </si>
+  <si>
+    <t>What are the Transaction propagation levels.</t>
+  </si>
+  <si>
+    <t>What are the Transaction Isolation</t>
+  </si>
+  <si>
+    <t>Difference between New operator and NewInstance() method .</t>
+  </si>
+  <si>
+    <t>What is factory Method.</t>
+  </si>
+  <si>
+    <t>Memory management in Java</t>
+  </si>
+  <si>
+    <t>How many ways can we create Objects.</t>
+  </si>
+  <si>
+    <t>Select query , retrieve the last 5 records using SQL.</t>
+  </si>
+  <si>
+    <t>What are the annotations used for secuity in SpringBoot.</t>
+  </si>
+  <si>
+    <t>While Configuring the rest API on service registry rest API name and end point is same or different.</t>
+  </si>
+  <si>
+    <t>How do we maintain the Different versions of Rest API.</t>
+  </si>
+  <si>
+    <t>Difference between Queryparam and Pathparam.</t>
+  </si>
+  <si>
+    <t>Can pathparam accept multiple params.</t>
+  </si>
+  <si>
+    <t>How do we send multiple paams  via the request using Params and Queryparams.</t>
+  </si>
+  <si>
+    <t>Which part of JWT token to use for authenticate.</t>
+  </si>
+  <si>
+    <t>Other types of authentication we have in spring boot</t>
+  </si>
+  <si>
+    <t>Where do we store the JWT Token.</t>
+  </si>
+  <si>
+    <t>Where this JWT token generate.</t>
+  </si>
+  <si>
+    <t>R u generated JWT token by youself or any third paty API we are used.</t>
+  </si>
+  <si>
+    <t>Explain about Spring Boot Security concepts.</t>
+  </si>
+  <si>
+    <t>Can we congigure custom messages to Actuators is it possible.</t>
+  </si>
+  <si>
+    <t>Can we configure different status for  Different exceptions.</t>
+  </si>
+  <si>
+    <t>How do we give Different Response status to Different exceptions.</t>
+  </si>
+  <si>
+    <t>Lazy and Eager Fetch( One to Many Relationships).</t>
+  </si>
+  <si>
+    <t>Multithreading - execution framework</t>
+  </si>
+  <si>
+    <t>What is Design Pattern and difference b/w factory design patter and builder design pattern.</t>
+  </si>
+  <si>
+    <t>Write a program to change the existing string to new string reading from Excel.</t>
+  </si>
+  <si>
+    <t>Java + Spring Boot : annotations, connections, session management, transaction, exception handling, mappings</t>
+  </si>
+  <si>
+    <t>Asynchronous programming Examples.</t>
+  </si>
+  <si>
+    <t>Java Sorting Programming using java8.</t>
+  </si>
+  <si>
+    <t>Different modules from spring boot.</t>
+  </si>
+  <si>
+    <t>Create an immutable class Employee(id, name, list of interests) and create 3 employee objects and explain immutability.</t>
+  </si>
+  <si>
+    <t>What are the ceremonies that we have in Agile?</t>
+  </si>
+  <si>
+    <t>What is the process of review for your code in the agile model? Who does the review?</t>
+  </si>
+  <si>
+    <t>In Agile what do you mean by retrospective ceremony? What do we do there?</t>
+  </si>
+  <si>
+    <t>Create a array list to print numbers</t>
+  </si>
+  <si>
+    <t>Print the max number of array list. What is the use of if present in this code.</t>
+  </si>
+  <si>
+    <t>What are the usage of generics in java?</t>
+  </si>
+  <si>
+    <t>How do we create a immutable objects in java and How do achieve immutable object in java?</t>
+  </si>
+  <si>
+    <t>Explain about garbage collection in Java and what are the events that are triggered.</t>
+  </si>
+  <si>
+    <t>Do have exp in Microservices? Do you use Restful? How do you present to client if you are using Jason request?</t>
+  </si>
+  <si>
+    <t>How do you implement the JWT token?</t>
+  </si>
+  <si>
+    <t>What are the challenges we face in Microservices as  a distributed architecture?</t>
+  </si>
+  <si>
+    <t>Map &amp; flat Map &amp; Difference</t>
+  </si>
+  <si>
+    <t>What is RequestMapping in spring boot?</t>
+  </si>
+  <si>
+    <t>What are checked exceptions and unchecked exceptions in java?</t>
+  </si>
+  <si>
+    <t>Even no in list of integer, finding the number stating with 1 in the same array, finding all the duplicate</t>
+  </si>
+  <si>
+    <t>What is the Path in spring?</t>
+  </si>
+  <si>
+    <t>What is Junit and how to implement it?</t>
+  </si>
+  <si>
+    <t>How to ignore the test case in Junit ?</t>
+  </si>
+  <si>
+    <t>What is the Mock and Mock Inject?</t>
+  </si>
+  <si>
+    <t>What is the git clone ?</t>
+  </si>
+  <si>
+    <t>What is the origin and pull requests in git?</t>
+  </si>
+  <si>
+    <t>How to revert the tag in git?</t>
+  </si>
+  <si>
+    <t>What is the head in git?</t>
+  </si>
+  <si>
+    <t>Defualt method &amp; why this is used</t>
+  </si>
+  <si>
+    <t>Write a method that will take list of employees and given pin code as input and will return the list of employees based on given pin code.</t>
+  </si>
+  <si>
+    <t>How to use configuration on cloud side</t>
+  </si>
+  <si>
+    <t>How Database transaction works.</t>
+  </si>
+  <si>
+    <t>Implement a custom java class like Stack in java for only push operation. Write JUnit for it, Class should be generic.</t>
+  </si>
+  <si>
+    <t>Jpa query related - how to do associations,</t>
+  </si>
+  <si>
+    <t>How To read Data of Size 1 GB ? one Thread needs to read another thread needs to write Data in console, how to achieve this Scenario.</t>
+  </si>
+  <si>
+    <t>How to create your own Exception</t>
+  </si>
+  <si>
+    <t>If one API handling Throws Null pointer Exception , how will you inform to client (Client o idea about to handle bull pointer exception)</t>
+  </si>
+  <si>
+    <t>I want to maintain Insertion order which data collection you will use.</t>
+  </si>
+  <si>
+    <t>I want to maintain Insertion order In Map  which data collection you will use.</t>
+  </si>
+  <si>
+    <t>How to handle Configuration properties in microservices</t>
+  </si>
+  <si>
+    <t>Can I maintain configuration Information in database.</t>
+  </si>
+  <si>
+    <t>Difference between Query Param and Path Param</t>
+  </si>
+  <si>
+    <t>How to convert List of Employee Objects to Map Objects</t>
+  </si>
+  <si>
+    <t>Default Hashcode of null.</t>
+  </si>
+  <si>
+    <t>Which Data Stream using in Hashmap After Threshhold limit is reached.</t>
+  </si>
+  <si>
+    <t>Difference between HashMap and Weak HashMap</t>
+  </si>
+  <si>
+    <t>If I return always Same HashCode Ex: return 1 then what is ths size of Hashmap Object.</t>
+  </si>
+  <si>
+    <t>How to convert Map&lt;Integer, String&gt; into list object.</t>
+  </si>
+  <si>
+    <t>How to Find Average Salary of Employee using Steams.</t>
+  </si>
+  <si>
+    <t>Count Occerance of given character in a String using Stream API.</t>
+  </si>
+  <si>
+    <t>What is Singleton How to break the Singleton in Spring.</t>
+  </si>
+  <si>
+    <t>ForEach method is Intermediate operation (or) Terminal Operator.</t>
+  </si>
+  <si>
+    <t>How to print map object in java8.</t>
+  </si>
+  <si>
+    <t>What is Concurrent Hashmap  object.</t>
+  </si>
+  <si>
+    <t>Write Many to Many Configuration in Hibernate.</t>
+  </si>
+  <si>
+    <t>Difference Between Update and Merge method in hibernate.</t>
+  </si>
+  <si>
+    <t>Difference between @Controller and @RestController.</t>
+  </si>
+  <si>
+    <t>Can we provide Multiple configurations in Spring.</t>
+  </si>
+  <si>
+    <t>How to create Jenkins Pipeline.</t>
+  </si>
+  <si>
+    <t>How to run Test Profile in Spring Boot.</t>
+  </si>
+  <si>
+    <t>Which Command used to Display Count for Containers and Images.</t>
+  </si>
+  <si>
+    <t>What is the Command to Display Stopped Containers.</t>
+  </si>
+  <si>
+    <t>Why CopyWriteArraylist in collections.</t>
+  </si>
+  <si>
+    <t>How to ceate ThreadPool in Java.</t>
+  </si>
+  <si>
+    <t>Difference between Execute and Submit methods in executor frameworks.</t>
+  </si>
+  <si>
+    <t>Difference between Sleep(1000) and Wait(1000).</t>
+  </si>
+  <si>
+    <t>Difference between Class level lock and Object level lock.</t>
+  </si>
+  <si>
+    <t>How to provide Transaction methods in Spring boot.</t>
+  </si>
+  <si>
+    <t>Method Overriding Question for Parent Class Exception and Sub Class Exception.</t>
+  </si>
+  <si>
+    <t>If we have 10 microservices then how to find root cause of problem if any issues Happened.</t>
+  </si>
+  <si>
+    <t>Suppose Microservice A Communicatiing Microservice B, If Microservice B Failed Due to Some issue then how to Overcome this issue and which patterns you will apply.</t>
+  </si>
+  <si>
+    <t>What is Garbage colletor and what are the generations available in Garbage collectos.</t>
+  </si>
+  <si>
+    <t>What is Inedexing and how to write the Indexing</t>
+  </si>
+  <si>
+    <t>What is Difference between Relational Database and NoSQL</t>
+  </si>
+  <si>
+    <t>How you check the performace of API and how you improve the Performace of API if it has 5 to 10 Sec slow</t>
+  </si>
+  <si>
+    <t>How you deploy your Application</t>
+  </si>
+  <si>
+    <t>Tell about Kubenets</t>
+  </si>
+  <si>
+    <t>What is Caching , r u used any Internal and External Caching in ur project</t>
+  </si>
+  <si>
+    <t>How u secure ur Application</t>
+  </si>
+  <si>
+    <t>How you generate JWT token.</t>
+  </si>
+  <si>
+    <t>Write the Code to Sort the list of Employees based on Age</t>
+  </si>
+  <si>
+    <t>How you sort the MAP in java8 in Descending order.</t>
+  </si>
+  <si>
+    <t>Kubernets and Docker how you deploy your application</t>
+  </si>
+  <si>
+    <t>Which version of Java and Spring Boot version ur using.</t>
+  </si>
+  <si>
+    <t>Diffeence Between Stream and Parallel Stream</t>
+  </si>
+  <si>
+    <t>In Parallel Streams how many Thredas are Created.</t>
+  </si>
+  <si>
+    <t>How you improve the Performace of Database what are the Technique</t>
+  </si>
+  <si>
+    <t>Write the Sample code using FlatMap</t>
+  </si>
+  <si>
+    <t>Write the Java8 code to filter the employees based on age.</t>
+  </si>
+  <si>
+    <t>Remove the Duplicates in the given lists.</t>
+  </si>
+  <si>
+    <t>what are the diff between Java 6 and java 8</t>
+  </si>
+  <si>
+    <t>When is object ready for GC</t>
+  </si>
+  <si>
+    <t>What is Equals function</t>
+  </si>
+  <si>
+    <t>Explain hashcode</t>
+  </si>
+  <si>
+    <t>Difference between Array and List</t>
+  </si>
+  <si>
+    <t>Explain how deadlock happen</t>
+  </si>
+  <si>
+    <t>Explain Synchronized keyword</t>
+  </si>
+  <si>
+    <t>What is SOLID principle</t>
+  </si>
+  <si>
+    <t>What is sychronizer</t>
+  </si>
+  <si>
+    <t>Difference between HashSet and treeSet</t>
+  </si>
+  <si>
+    <t>What is wait() , notify()</t>
+  </si>
+  <si>
+    <t>What is Map and Redduce methods in Stream API</t>
+  </si>
+  <si>
+    <t>What is de-coupling how to achieve it</t>
+  </si>
+  <si>
+    <t>What are NullPointerException and how to find root cause for it</t>
+  </si>
+  <si>
+    <t>Explain  internal Vs External itertion in Java 8</t>
+  </si>
+  <si>
+    <t>Explain the logic to print the pattern and the output should be lessthan (100000)</t>
+  </si>
+  <si>
+    <t>Example output:</t>
+  </si>
+  <si>
+    <t>77777"</t>
+  </si>
+  <si>
+    <t>Given 500,200,100,50,20,10 rupees notes and given 80 rupees as input.Print what are the least possible notes</t>
+  </si>
+  <si>
+    <t>output: 80--&gt; 50,20 &amp; 10 rupees notes"</t>
+  </si>
+  <si>
+    <t>PREDICATE in java8 with example</t>
+  </si>
+  <si>
+    <t>What is completablefeature in java8.</t>
+  </si>
+  <si>
+    <t>What is ConcurrentModificationException and how it can be prevented</t>
+  </si>
+  <si>
+    <t>Http REST API state full or state less explain the same</t>
+  </si>
+  <si>
+    <t>What happens is thread.run is called explicitly</t>
+  </si>
+  <si>
+    <t>In which state thread will be ? In case of Thread.start and Thread.run</t>
+  </si>
+  <si>
+    <t>Write a program to print employee details using Method Reference</t>
+  </si>
+  <si>
+    <t>Write a program to print employee details using Hibernate Native Sql queries</t>
+  </si>
+  <si>
+    <t>What is Functional Interface</t>
+  </si>
+  <si>
+    <t>Difference between final,finally and finalize</t>
+  </si>
+  <si>
+    <t>Create a custom exception call</t>
+  </si>
+  <si>
+    <t>Lambda Expressions and Method reference in Java 8</t>
+  </si>
+  <si>
+    <t>Async in java 8</t>
+  </si>
+  <si>
+    <t>Write a program to get subset of array whose sum is 10 from array of element {2,3,4,6,8,9,-1}</t>
+  </si>
+  <si>
+    <t>Write a program to get the person list from list persons with name and age like {{'john',30},{'sham',30},{'john',31},{'sham',31}</t>
+  </si>
+  <si>
+    <t>What are checked and unchecked exceptions</t>
+  </si>
+  <si>
+    <t>Did you use any security related features</t>
+  </si>
+  <si>
+    <t>What is the file generated and who uses it</t>
+  </si>
+  <si>
+    <t>What is the database usecase</t>
+  </si>
+  <si>
+    <t>Are you using JPI to interact with database</t>
+  </si>
+  <si>
+    <t>Diff between lazy loading and eager loading</t>
+  </si>
+  <si>
+    <t>How do you define Primary Key at the Entity level</t>
+  </si>
+  <si>
+    <t>What about Spring security</t>
+  </si>
+  <si>
+    <t>Tell me the steps for validation while sending request, controller</t>
+  </si>
+  <si>
+    <t>How do you perform exception handling in Springboot application</t>
+  </si>
+  <si>
+    <t>Difference between '@configuration vs @component</t>
+  </si>
+  <si>
+    <t>Normal Springboot service - 4 calls, passing parameters; how to parallelise the calls,how do you compare the result of the calls</t>
+  </si>
+  <si>
+    <t>What are the new features added in Java 11 compared to Java 8</t>
+  </si>
+  <si>
+    <t>Where is Function or Bi Function used</t>
+  </si>
+  <si>
+    <t>Person Class - Name and Age Using Streams, get Name where Age greater than 50</t>
+  </si>
+  <si>
+    <t>Diff between WHERE and HAVING in SQL</t>
+  </si>
+  <si>
+    <t>What is Bi-function</t>
+  </si>
+  <si>
+    <t>How you call a Bi-function</t>
+  </si>
+  <si>
+    <t>How you call a Function</t>
+  </si>
+  <si>
+    <t>Springboot - which embedded server used?</t>
+  </si>
+  <si>
+    <t>What all other servers apart from Tomcat</t>
+  </si>
+  <si>
+    <t>What is a Springboot startup parent</t>
+  </si>
+  <si>
+    <t>What are disadvantages of Springboot</t>
+  </si>
+  <si>
+    <t>How can a WAR file be used in springboot</t>
+  </si>
+  <si>
+    <t>When is WAR file generated and when is jar file generated</t>
+  </si>
+  <si>
+    <t>How do you define Composite Primary Key</t>
+  </si>
+  <si>
+    <t>Security in Springboot</t>
+  </si>
+  <si>
+    <t>What type of security in Spring you worked on</t>
+  </si>
+  <si>
+    <t>Diff b/w @configuration and @component</t>
+  </si>
+  <si>
+    <t>Do you know how to configure swagger end point</t>
+  </si>
+  <si>
+    <t>What is actuator in springboot</t>
+  </si>
+  <si>
+    <t>where can you check actuator</t>
+  </si>
+  <si>
+    <t>Micorservice A &amp; Microservice B - how to achieve if it fails in B, rolled back in A</t>
+  </si>
+  <si>
+    <t>Target type of lambda expression</t>
+  </si>
+  <si>
+    <t>How do you check string is null or not before streaming</t>
+  </si>
+  <si>
+    <t>Diff b/w loadings - lazy &amp; eager</t>
+  </si>
+  <si>
+    <t>How to exchange data b/w 2 components</t>
+  </si>
+  <si>
+    <t>Which webserver used in Springboot application</t>
+  </si>
+  <si>
+    <t>How may inbuilt servers are provided in Springboot</t>
+  </si>
+  <si>
+    <t>By default is it JAR or WAR ,how to change the default</t>
+  </si>
+  <si>
+    <t>How we can do parallel combine of results instead of sequential;</t>
+  </si>
+  <si>
+    <t>Do you know CompletableFuture in Java</t>
+  </si>
+  <si>
+    <t>Do you know FUTURE Keyword in Java</t>
+  </si>
+  <si>
+    <t>Do you know Async annotation in Springboot</t>
+  </si>
+  <si>
+    <t>What is @ControllerAdvice in Springboot</t>
+  </si>
+  <si>
+    <t>What Security in Springboot</t>
+  </si>
+  <si>
+    <t>How to skip applying SECURITY in some endpoints</t>
+  </si>
+  <si>
+    <t>What is @transient</t>
+  </si>
+  <si>
+    <t>To many relationship; what are all the internal queries</t>
+  </si>
+  <si>
+    <t>Diff between eager loading &amp; lazy loading</t>
+  </si>
+  <si>
+    <t>What service is used for authentication</t>
+  </si>
+  <si>
+    <t>How do you deploy your Microservice for other environments</t>
+  </si>
+  <si>
+    <t>What type of editor do you use</t>
+  </si>
+  <si>
+    <t>Tell the process once you code the service, how do you connect, pipelines, etc</t>
+  </si>
+  <si>
+    <t>What is the purpose of Streams</t>
+  </si>
+  <si>
+    <t>What is meant by Abstract method</t>
+  </si>
+  <si>
+    <t>How is exception handling done</t>
+  </si>
+  <si>
+    <t>How communication happens between Microservices</t>
+  </si>
+  <si>
+    <t>If I am using thin client what commands yu use</t>
+  </si>
+  <si>
+    <t>How Springboot differs from regular Java applications</t>
+  </si>
+  <si>
+    <t>Give some examples of types of functions that you developed</t>
+  </si>
+  <si>
+    <t>Have you come across situations where one service is down, backup is available immediately</t>
+  </si>
+  <si>
+    <t>What are the different communications you do for Microservices</t>
+  </si>
+  <si>
+    <t>Where do you host and run these services</t>
+  </si>
+  <si>
+    <t>As a developer what exactly you do, because Microservices are already available</t>
+  </si>
+  <si>
+    <t>What protocol do you use to do the authentication</t>
+  </si>
+  <si>
+    <t>What APIs do you use</t>
+  </si>
+  <si>
+    <t>How does Authentication work</t>
+  </si>
+  <si>
+    <t>Each user has different roles, how do you control the login based on the role</t>
+  </si>
+  <si>
+    <t>Can you explain overall architecture - backend to front-end flow</t>
+  </si>
+  <si>
+    <t>Have you done any code optimization?</t>
+  </si>
+  <si>
+    <t>What is SONAR CUBE</t>
+  </si>
+  <si>
+    <t>How can I integrate SONAR CUBE to scan my code repository</t>
+  </si>
+  <si>
+    <t>What type of backend services have you developed , explain functionally</t>
+  </si>
+  <si>
+    <t>Can you go thru some of the types of in-built API's that you used and developed</t>
+  </si>
+  <si>
+    <t>Have you worked with message queues</t>
+  </si>
+  <si>
+    <t>How do you read messages from queues</t>
+  </si>
+  <si>
+    <t>What internal function you use to connect to the DB</t>
+  </si>
+  <si>
+    <t>Are there in-built functions to configure or new developed</t>
+  </si>
+  <si>
+    <t>What is the interaction between Core Java and Springboot</t>
+  </si>
+  <si>
+    <t>How is the connection pooling - is it auto or managed</t>
+  </si>
+  <si>
+    <t>Have you worked on micorservices platform hosting</t>
+  </si>
+  <si>
+    <t>Once the code build is ready, what are the different ways to deploy</t>
+  </si>
+  <si>
+    <t>How do we know which service is being called</t>
+  </si>
+  <si>
+    <t>How to interact directly without Eureka service</t>
+  </si>
+  <si>
+    <t>What is the purpose of List,How do you implement</t>
+  </si>
+  <si>
+    <t>Why to go for Springboot over Spring</t>
+  </si>
+  <si>
+    <t>What does configuration class indicate</t>
+  </si>
+  <si>
+    <t>If same Bean has been creted twice, what will happen</t>
+  </si>
+  <si>
+    <t>What is STATIC keyword</t>
+  </si>
+  <si>
+    <t>Can we create class as a static</t>
+  </si>
+  <si>
+    <t>Can we have private catch without class</t>
+  </si>
+  <si>
+    <t>If there is exception in try block, what is the result</t>
+  </si>
+  <si>
+    <t>Catch Arithmetic exception, Runtime exception, what happens</t>
+  </si>
+  <si>
+    <t>I want to access a Static method; how can I call it</t>
+  </si>
+  <si>
+    <t>Default method, static method, in interface, child, what it should do to implemte</t>
+  </si>
+  <si>
+    <t>What is use of Circuit breaker</t>
+  </si>
+  <si>
+    <t>What frameworks used for JUNIT</t>
+  </si>
+  <si>
+    <t>How many Microservices you used</t>
+  </si>
+  <si>
+    <t>How do I call a url using REST template</t>
+  </si>
+  <si>
+    <t>What type of Collections you used</t>
+  </si>
+  <si>
+    <t>What is the purpose of Exception class</t>
+  </si>
+  <si>
+    <t>How do you create custom exception</t>
+  </si>
+  <si>
+    <t>What is diff b/w throw and throws</t>
+  </si>
+  <si>
+    <t>How do you Debug in Kubernetes</t>
+  </si>
+  <si>
+    <t>Coding : list of employees; extract name starting with 'A' and top salary employees</t>
+  </si>
+  <si>
+    <t>Heard of FIBONACCI series,write a METHOD in Java, input is x; output is sum of first x number of Fibonacci series</t>
+  </si>
+  <si>
+    <t>Give high level overview how Springboot does automatic configuration</t>
+  </si>
+  <si>
+    <t>Does Springboot replace Spring framework</t>
+  </si>
+  <si>
+    <t>Are you using Spring cloud components</t>
+  </si>
+  <si>
+    <t>Why do we need Eureka when we have Kubernetes</t>
+  </si>
+  <si>
+    <t>Who does load-balancing ? - Eureka or API gateway</t>
+  </si>
+  <si>
+    <t>What is the property name for profile</t>
+  </si>
+  <si>
+    <t>Service A; how does it know where to get Properties file</t>
+  </si>
+  <si>
+    <t>Which profile need to go to which Server - where do you specify that</t>
+  </si>
+  <si>
+    <t>Card Service ; in DEV env from DEV service and in TEST env, from TEST service - where do you specify</t>
+  </si>
+  <si>
+    <t>You created an API, delivered it to Prod; in PROD gave an issue; how do you go about debugging that issue in PROD</t>
+  </si>
+  <si>
+    <t>Where will you get the initial TRACEID from</t>
+  </si>
+  <si>
+    <t>Do you have familiarity with test cases for Springboot applications</t>
+  </si>
+  <si>
+    <t>Diff between Integration and Unit test</t>
+  </si>
+  <si>
+    <t>Have you used JUNIT,Which version</t>
+  </si>
+  <si>
+    <t>Write code to find elements starting with letter A in a given list, using Java and Lambda expressions</t>
+  </si>
+  <si>
+    <t>Write pseudocode for microservices endpoint building for fetching customer details</t>
+  </si>
+  <si>
+    <t>Do you have access to create Secret key</t>
+  </si>
+  <si>
+    <t>Write a code to get list of top 20 users which had highest amount of debit transaction amount and yesterday's date</t>
+  </si>
+  <si>
+    <t>What databased have you worked on</t>
+  </si>
+  <si>
+    <t>What kind of optimization have you done for Microservices</t>
+  </si>
+  <si>
+    <t>Where do you do UAT</t>
+  </si>
+  <si>
+    <t>Have you heard of auto-configuration in Springboot, how does it work</t>
+  </si>
+  <si>
+    <t>How are you handling millions of requests in your service</t>
+  </si>
+  <si>
+    <t>How do you handle load balancing in Open shift(ed hat Cloud)</t>
+  </si>
+  <si>
+    <t>How do you integrate KAFKA in Spring</t>
+  </si>
+  <si>
+    <t>Have you heard of Kafka streams</t>
+  </si>
+  <si>
+    <t>How do you secure in KAFKA</t>
+  </si>
+  <si>
+    <t>What are the differnet patterns used in Microservices</t>
+  </si>
+  <si>
+    <t>How can you change the default in server</t>
+  </si>
+  <si>
+    <t>What all applications servers are supported in Springboot</t>
+  </si>
+  <si>
+    <t>How do you handle exception in REST endpoint</t>
+  </si>
+  <si>
+    <t>What is Actuator,How do you integrate it</t>
+  </si>
+  <si>
+    <t>Can you connect to multiple databases in Springboot application and how</t>
+  </si>
+  <si>
+    <t>What are the different Design patterns</t>
+  </si>
+  <si>
+    <t>Did you use builder pattern</t>
+  </si>
+  <si>
+    <t>Any built in java classes in builder pattern</t>
+  </si>
+  <si>
+    <t>What does builder pattern do</t>
+  </si>
+  <si>
+    <t>What is many to many relationship</t>
+  </si>
+  <si>
+    <t>What is eager and lazy loading, which is better</t>
+  </si>
+  <si>
+    <t>How do you make backend call</t>
+  </si>
+  <si>
+    <t>Explain the flow from login to request</t>
+  </si>
+  <si>
+    <t>Without functional interface, can we not create single abstract instance</t>
+  </si>
+  <si>
+    <t>What are the functional interfaces you used</t>
+  </si>
+  <si>
+    <t>What is supplier; where can we use it</t>
+  </si>
+  <si>
+    <t>While designing an API, what are the major considerations</t>
+  </si>
+  <si>
+    <t>In Springboot, any other features using</t>
+  </si>
+  <si>
+    <t>@transaction - if any exception comes, if both checked and unchecked exceptions come, will the transaction gets rolled back in both the cases?</t>
+  </si>
+  <si>
+    <t>code - emp class - name, exp, age; want to sort this class based on experience and then on name</t>
+  </si>
+  <si>
+    <t>Remove dupicates in employee record</t>
+  </si>
+  <si>
+    <t>What is diff b/w WHERE and GROUPBY</t>
+  </si>
+  <si>
+    <t>At functional level, what does your application do</t>
+  </si>
+  <si>
+    <t>Diff b/w Executor service and parallel stream</t>
+  </si>
+  <si>
+    <t>Write Java 8 code Method to Give hike to 5 employees with 5yrs exp out of total 10 employees</t>
+  </si>
+  <si>
+    <t>IS there any performance impact of this code if there are 10million employees</t>
+  </si>
+  <si>
+    <t>How do you Insert 10 million records into a database in Java 8</t>
+  </si>
+  <si>
+    <t>Diff b/w tight and loose coupling in Spring</t>
+  </si>
+  <si>
+    <t>Diff b/w REST API and Spring</t>
+  </si>
+  <si>
+    <t>Write REST Controller in Springboot with ID as parameter; get emplyee details based on ID</t>
+  </si>
+  <si>
+    <t>For Maven what are the dependencies</t>
+  </si>
+  <si>
+    <t>Did you work on Spring Security</t>
+  </si>
+  <si>
+    <t>What are the components of Spring Security</t>
+  </si>
+  <si>
+    <t>How do you secure an API when exposing to third party</t>
+  </si>
+  <si>
+    <t>How would you register application to what server</t>
+  </si>
+  <si>
+    <t>How do you handle exceptions in Springboot</t>
+  </si>
+  <si>
+    <t>Did you work on Spring JPA</t>
+  </si>
+  <si>
+    <t>What are the available repositories in Spring JPI</t>
+  </si>
+  <si>
+    <t>Employee object - emp id, salary, name, bullion - new or existing; it comes as a Request to the API;</t>
+  </si>
+  <si>
+    <t>Write code in Java 8 to combine 2 strings - (STRING 1: 1,2,3); (STRING 2: one, two, three); output should be - 1, ONE, 2, TWO, 3, THREE</t>
+  </si>
+  <si>
+    <t>Did you work on any Date time  API</t>
+  </si>
+  <si>
+    <t>Diff b/w Local Date and Java Util Date</t>
+  </si>
+  <si>
+    <t>List of 50 Employees; Get first 10 employees salary and give 30 % hike</t>
+  </si>
+  <si>
+    <t>What are the different transactions in Spring</t>
+  </si>
+  <si>
+    <t>How does @ transaction work</t>
+  </si>
+  <si>
+    <t>What is the implementation for Spring security</t>
+  </si>
+  <si>
+    <t>What are the steps involved for securing application</t>
+  </si>
+  <si>
+    <t>Where are you deploying your changes</t>
+  </si>
+  <si>
+    <t>How is your ci/cd pipeline written</t>
+  </si>
+  <si>
+    <t>When you push your code, you push it to which branch</t>
+  </si>
+  <si>
+    <t>Is there any review before merging with main branch</t>
+  </si>
+  <si>
+    <t>How is the review done</t>
+  </si>
+  <si>
+    <t>What wrapper do you use - GIT, BITBUCKET, etc</t>
+  </si>
+  <si>
+    <t>How do you maintain different versions of code</t>
+  </si>
+  <si>
+    <t>When to use Spring JPA vs JDBC template</t>
+  </si>
+  <si>
+    <t>Is there any way we can copy the structure of the table using query</t>
+  </si>
+  <si>
+    <t>Can you do UPDATE statement using GROUP BY</t>
+  </si>
+  <si>
+    <t>How do you Store database properties in secure way, such as db password</t>
+  </si>
+  <si>
+    <t>Did you setup any project in local</t>
+  </si>
+  <si>
+    <t>How is auth authorization work in Springboot</t>
+  </si>
+  <si>
+    <t>How do you secure your application</t>
+  </si>
+  <si>
+    <t>How are you generating tokens in basic authentication</t>
+  </si>
+  <si>
+    <t>How are you connecting to ldap using sso</t>
+  </si>
+  <si>
+    <t>What is diff b/w jdbc template and spring jpa</t>
+  </si>
+  <si>
+    <t>How do u secure pwd and other sensitive info</t>
+  </si>
+  <si>
+    <t>What is diff b/w controller and restcontroller</t>
+  </si>
+  <si>
+    <t>Cant we use controller to retain response entitiy</t>
+  </si>
+  <si>
+    <t>How do u merge 2 unsorted arrays into a single sorted array</t>
+  </si>
+  <si>
+    <t>How does 'array copy' work internally</t>
+  </si>
+  <si>
+    <t>I have list of strings; some start with numbers, some start with alphabets</t>
+  </si>
+  <si>
+    <t>1abc, 2dca, abc, ...thousand strings are there</t>
+  </si>
+  <si>
+    <t>find a string which starts with a number</t>
+  </si>
+  <si>
+    <t>How do you deploy your application</t>
+  </si>
+  <si>
+    <t>How reqt comes to you</t>
+  </si>
+  <si>
+    <t>GIT - what kinds of branches you maintain</t>
+  </si>
+  <si>
+    <t>How do u write review request</t>
+  </si>
+  <si>
+    <t>How is code deployed in each env - tools and technlgies used</t>
+  </si>
+  <si>
+    <t>How are you maintaining versioning of jar/war from deployment to deployment</t>
+  </si>
+  <si>
+    <t>If u are using swagger, how do u maintain versioning in swagger</t>
+  </si>
+  <si>
+    <t>How do you maintain the session and redirect from one service to the other service</t>
+  </si>
+  <si>
+    <t>Did you work on API Gateway</t>
+  </si>
+  <si>
+    <t>How do you authenticate the request</t>
+  </si>
+  <si>
+    <t>How do you create JWT token</t>
+  </si>
+  <si>
+    <t>Is JWT token created by your service</t>
+  </si>
+  <si>
+    <t>Where is the token maintained?</t>
+  </si>
+  <si>
+    <t>How do you authenticate if it is the right token or not</t>
+  </si>
+  <si>
+    <t>Where do you maintain the session</t>
+  </si>
+  <si>
+    <t>How do you maintain the volume load - in the server or in the code</t>
+  </si>
+  <si>
+    <t>Where do you use AOP</t>
+  </si>
+  <si>
+    <t>Join Point before advice and after advice</t>
   </si>
 </sst>
 </file>
@@ -1942,6 +2890,1611 @@
         <v>208</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>777.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>7777.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
